--- a/DOM_Banner/output/dept_banner/Akshay Amaraneni_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Akshay Amaraneni_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319263251</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387743999</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A Case Report of Refractory Diffuse Alveolar Hemorrhage as a Complication of Antiphospholipid Syndrome and Review of Its Management</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.47267</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38022217</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.47267</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388527477</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>REFRACTORY HEMOLYTIC ANEMIA IN SETTING OF DIGEORGE SYNDROME (PARTIAL 22Q11.2 DELETION)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Annals of Allergy, Asthma &amp; Immunology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.anai.2023.08.512</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.anai.2023.08.512</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, Midwestern University Internal Medicine Residency Consortium, Cottonwood, AZ 86326, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389623442</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Myeloproliferative Neoplasms: Contemporary Review and Molecular Landscape</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms242417383</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38139212</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms242417383</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390340514</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Peripheral T-Cell Lymphoma in a Patient Previously Diagnosed With Sarcoidosis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of hematology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/jh1173</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38188478</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/jh1173</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
